--- a/DataMining/YoutubeTrendData.xlsx
+++ b/DataMining/YoutubeTrendData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BabaYaga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BabaYaga\Desktop\University\DataMining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C076E76-5CF0-4480-9DA0-E40FD424765C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACC9407-B922-430E-8939-E95D7704DB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4710" yWindow="450" windowWidth="16200" windowHeight="9810" xr2:uid="{FF414CC8-33D7-41B9-A3B6-9431E5C92159}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{FF414CC8-33D7-41B9-A3B6-9431E5C92159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="290">
   <si>
     <t>TrendRank</t>
   </si>
@@ -781,6 +781,129 @@
   </si>
   <si>
     <t>MrBeast</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Morning Show</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>Vlog</t>
+  </si>
+  <si>
+    <t>Voleyball</t>
+  </si>
+  <si>
+    <t>Fun</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v-jrFbVE_zA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PCgBtRfy5ao</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z59gebWHdto</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ayJAealNDLw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rc-ty_CQL1Q</t>
+  </si>
+  <si>
+    <t>Güzel Günler 2. Bölüm</t>
+  </si>
+  <si>
+    <t>Taksim'i kana bulayan terörist yakalandı! - atv Haber 14 Kasım 2022</t>
+  </si>
+  <si>
+    <t>Dad Pranking Children’s 🥹🤣</t>
+  </si>
+  <si>
+    <t>[CHOREOGRAPHY] BTS (방탄소년단) '달려라 방탄 (Run BTS)' Dance Practice</t>
+  </si>
+  <si>
+    <t>TAKSİM SALDIRISINDAN ÖNEMLİ AYRINTILAR,BOMBACININ BİLİNMEYENLERİ...</t>
+  </si>
+  <si>
+    <t>VakıfBank 🆚 Fenerbahçe Opet (Maçın Tamamı) | 2022-2023 Sultanlar Ligi</t>
+  </si>
+  <si>
+    <t>Çakalın Hükmü Aslan Ayağa Kalkana Kadardır | Teşkilat 55. Bölüm</t>
+  </si>
+  <si>
+    <t>Cinayeti ben yapmadım, yaptırmadım! - Müge Anlı ile Tatlı Sert 14 Kasım 2022</t>
+  </si>
+  <si>
+    <t>2022-11-12T15:00:06Z</t>
+  </si>
+  <si>
+    <t>2022-11-12T19:37:15Z</t>
+  </si>
+  <si>
+    <t>2022-11-14T08:00:15Z</t>
+  </si>
+  <si>
+    <t>2022-11-13T21:15:39Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T10:11:49Z</t>
+  </si>
+  <si>
+    <t>2022-11-11T15:10:42Z</t>
+  </si>
+  <si>
+    <t>2022-11-13T21:14:32Z</t>
+  </si>
+  <si>
+    <t>2022-11-14T09:34:43Z</t>
+  </si>
+  <si>
+    <t>2022-11-14T17:09:01Z</t>
+  </si>
+  <si>
+    <t>صويلو: منفذة تفجير اسطنبول سورية قادمة من منطقة الإشراف الأمريكي</t>
+  </si>
+  <si>
+    <t>UCBgTP2LOFVPmq15W-RH-WXA</t>
+  </si>
+  <si>
+    <t>UC9f72O1XqE08WkwZtCgOmQg</t>
+  </si>
+  <si>
+    <t>UCURohFUc5BwgHHELJjRCa-w</t>
+  </si>
+  <si>
+    <t>Orient TV</t>
+  </si>
+  <si>
+    <t>TIMS&amp;B Productions</t>
+  </si>
+  <si>
+    <t>صابر مشهور</t>
+  </si>
+  <si>
+    <t>196Sekiz Shorts</t>
+  </si>
+  <si>
+    <t>22.15.11</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A805415-0B34-40A9-B843-2B99E7DBEF99}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1371,9 @@
       <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>111</v>
       </c>
@@ -1278,7 +1403,9 @@
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1308,7 +1435,9 @@
       <c r="C4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>113</v>
       </c>
@@ -1338,7 +1467,9 @@
       <c r="C5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>114</v>
       </c>
@@ -1368,7 +1499,9 @@
       <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>115</v>
       </c>
@@ -1398,7 +1531,9 @@
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>116</v>
       </c>
@@ -1428,7 +1563,9 @@
       <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>117</v>
       </c>
@@ -1458,7 +1595,9 @@
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>118</v>
       </c>
@@ -1518,7 +1657,9 @@
       <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>120</v>
       </c>
@@ -1548,7 +1689,9 @@
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>121</v>
       </c>
@@ -1578,7 +1721,9 @@
       <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>122</v>
       </c>
@@ -1608,7 +1753,9 @@
       <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>123</v>
       </c>
@@ -1638,7 +1785,9 @@
       <c r="C15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>124</v>
       </c>
@@ -1668,7 +1817,9 @@
       <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>125</v>
       </c>
@@ -1698,7 +1849,9 @@
       <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>126</v>
       </c>
@@ -1728,7 +1881,9 @@
       <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>127</v>
       </c>
@@ -1758,7 +1913,9 @@
       <c r="C19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>128</v>
       </c>
@@ -1818,7 +1975,9 @@
       <c r="C21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>130</v>
       </c>
@@ -1848,7 +2007,9 @@
       <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>131</v>
       </c>
@@ -1878,7 +2039,9 @@
       <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>132</v>
       </c>
@@ -1908,7 +2071,9 @@
       <c r="C24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>133</v>
       </c>
@@ -1938,7 +2103,9 @@
       <c r="C25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>134</v>
       </c>
@@ -1968,7 +2135,9 @@
       <c r="C26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>135</v>
       </c>
@@ -1998,7 +2167,9 @@
       <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>136</v>
       </c>
@@ -2028,7 +2199,9 @@
       <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>137</v>
       </c>
@@ -2058,7 +2231,9 @@
       <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>138</v>
       </c>
@@ -2088,7 +2263,9 @@
       <c r="C30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>139</v>
       </c>
@@ -2118,7 +2295,9 @@
       <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>140</v>
       </c>
@@ -2148,7 +2327,9 @@
       <c r="C32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>141</v>
       </c>
@@ -2178,7 +2359,9 @@
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E33" s="1" t="s">
         <v>142</v>
       </c>
@@ -2208,7 +2391,9 @@
       <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>143</v>
       </c>
@@ -2238,7 +2423,9 @@
       <c r="C35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>144</v>
       </c>
@@ -2268,7 +2455,9 @@
       <c r="C36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>145</v>
       </c>
@@ -2298,7 +2487,9 @@
       <c r="C37" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
@@ -2358,7 +2549,9 @@
       <c r="C39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E39" s="1" t="s">
         <v>148</v>
       </c>
@@ -2388,7 +2581,9 @@
       <c r="C40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E40" s="1" t="s">
         <v>149</v>
       </c>
@@ -2418,7 +2613,9 @@
       <c r="C41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>150</v>
       </c>
@@ -2448,7 +2645,9 @@
       <c r="C42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>151</v>
       </c>
@@ -2478,7 +2677,9 @@
       <c r="C43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>152</v>
       </c>
@@ -2508,7 +2709,9 @@
       <c r="C44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>153</v>
       </c>
@@ -2568,7 +2771,9 @@
       <c r="C46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E46" s="1" t="s">
         <v>155</v>
       </c>
@@ -2598,7 +2803,9 @@
       <c r="C47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>156</v>
       </c>
@@ -2628,7 +2835,9 @@
       <c r="C48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>157</v>
       </c>
@@ -2658,7 +2867,9 @@
       <c r="C49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="E49" s="1" t="s">
         <v>158</v>
       </c>
@@ -2688,7 +2899,9 @@
       <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>159</v>
       </c>
@@ -2718,7 +2931,9 @@
       <c r="C51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>160</v>
       </c>
@@ -2736,6 +2951,1598 @@
       </c>
       <c r="J51" s="1">
         <v>68193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1151871</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" s="1">
+        <v>415274</v>
+      </c>
+      <c r="J53" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2346284</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>4</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I55" s="1">
+        <v>609135</v>
+      </c>
+      <c r="J55" s="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I56" s="1">
+        <v>11790678</v>
+      </c>
+      <c r="J56" s="1">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="1">
+        <v>586860</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>8</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I59" s="1">
+        <v>844950</v>
+      </c>
+      <c r="J59" s="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>9</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1631965</v>
+      </c>
+      <c r="J60" s="1">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I61" s="1">
+        <v>242385</v>
+      </c>
+      <c r="J61" s="1">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>11</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I62" s="1">
+        <v>937526</v>
+      </c>
+      <c r="J62" s="1">
+        <v>24167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1244666</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>13</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I64" s="1">
+        <v>195667</v>
+      </c>
+      <c r="J64" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1253646</v>
+      </c>
+      <c r="J65" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I66" s="1">
+        <v>455497</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>16</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1195249</v>
+      </c>
+      <c r="J67" s="1">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>17</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I68" s="1">
+        <v>14068891</v>
+      </c>
+      <c r="J68" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I69" s="1">
+        <v>233452</v>
+      </c>
+      <c r="J69" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>19</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I70" s="1">
+        <v>390850</v>
+      </c>
+      <c r="J70" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>20</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="1">
+        <v>14194705</v>
+      </c>
+      <c r="J71" s="1">
+        <v>84692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>21</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I72" s="1">
+        <v>729539</v>
+      </c>
+      <c r="J72" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>22</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1184587</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>23</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I74" s="1">
+        <v>25492813</v>
+      </c>
+      <c r="J74" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>24</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I75" s="1">
+        <v>306909</v>
+      </c>
+      <c r="J75" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>25</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I76" s="1">
+        <v>149304</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>26</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I77" s="1">
+        <v>109355</v>
+      </c>
+      <c r="J77" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>27</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I78" s="1">
+        <v>3229036</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>28</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I79" s="1">
+        <v>596517</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>29</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I80" s="1">
+        <v>145801</v>
+      </c>
+      <c r="J80" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>30</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I81" s="1">
+        <v>218613</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>31</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I82" s="1">
+        <v>6685617</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>32</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I83" s="1">
+        <v>220227</v>
+      </c>
+      <c r="J83" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>33</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84" s="1">
+        <v>629576</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>34</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I85" s="1">
+        <v>88089</v>
+      </c>
+      <c r="J85" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>35</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I86" s="1">
+        <v>4961996</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>36</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I87" s="1">
+        <v>91786</v>
+      </c>
+      <c r="J87" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>37</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I88" s="1">
+        <v>3883986</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>38</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I89" s="1">
+        <v>372729</v>
+      </c>
+      <c r="J89" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>39</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I90" s="1">
+        <v>117499</v>
+      </c>
+      <c r="J90" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>40</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I91" s="1">
+        <v>2359796</v>
+      </c>
+      <c r="J91" s="1">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>41</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I92" s="1">
+        <v>152388</v>
+      </c>
+      <c r="J92" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>42</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I93" s="1">
+        <v>2135675</v>
+      </c>
+      <c r="J93" s="1">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I94" s="1">
+        <v>175337</v>
+      </c>
+      <c r="J94" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I95" s="1">
+        <v>400692</v>
+      </c>
+      <c r="J95" s="1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I96" s="1">
+        <v>46288514</v>
+      </c>
+      <c r="J96" s="1">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>46</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I97" s="1">
+        <v>40500146</v>
+      </c>
+      <c r="J97" s="1">
+        <v>69704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>47</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I98" s="1">
+        <v>212926</v>
+      </c>
+      <c r="J98" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>48</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I99" s="1">
+        <v>793367</v>
+      </c>
+      <c r="J99" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>49</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I100" s="1">
+        <v>490869</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>50</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I101" s="1">
+        <v>569529</v>
+      </c>
+      <c r="J101" s="1">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2790,8 +4597,58 @@
     <hyperlink ref="B49" r:id="rId48" xr:uid="{7E846F59-2FB1-47AE-98FA-2145D8CCD8CE}"/>
     <hyperlink ref="B50" r:id="rId49" xr:uid="{AD508B0A-4C3C-4A16-A62D-395230529A40}"/>
     <hyperlink ref="B51" r:id="rId50" xr:uid="{21975D92-0A59-423F-9673-14676CCDCF79}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{1FBC4C06-704C-4616-9704-828C65E5C415}"/>
+    <hyperlink ref="B59" r:id="rId52" xr:uid="{B22E7141-5BDA-4CF1-AB44-2DAA8401C56B}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{DD0815AD-8E44-4570-81F8-955406E276E9}"/>
+    <hyperlink ref="B83" r:id="rId54" xr:uid="{6FA51026-4660-4C17-B4EC-2F1EE6CC17AC}"/>
+    <hyperlink ref="B93" r:id="rId55" xr:uid="{F5E198CD-0A13-4DB6-AEFE-C0C7A8892B58}"/>
+    <hyperlink ref="B52" r:id="rId56" xr:uid="{2E9891AF-677A-4F65-BEB3-AAB0B4565EE7}"/>
+    <hyperlink ref="B54" r:id="rId57" xr:uid="{F1129FD3-A45C-489D-8FE8-0F680796729A}"/>
+    <hyperlink ref="B55" r:id="rId58" xr:uid="{C2E596F2-95D8-48B6-A496-BC6C996C88B2}"/>
+    <hyperlink ref="B56" r:id="rId59" xr:uid="{5C32E22A-4D96-4B91-BC3C-C4BA7E765D6A}"/>
+    <hyperlink ref="B57" r:id="rId60" xr:uid="{FB0A16DD-1F08-4116-9BE7-DB45E656D840}"/>
+    <hyperlink ref="B58" r:id="rId61" xr:uid="{91D41343-DE65-4F3A-A952-E1A474C7C7DC}"/>
+    <hyperlink ref="B60" r:id="rId62" xr:uid="{16A8855B-CE1D-4F2E-A8CF-5D7569F6C4F8}"/>
+    <hyperlink ref="B61" r:id="rId63" xr:uid="{8F5ECFA9-1922-4C1C-9176-DDFFF26F7537}"/>
+    <hyperlink ref="B62" r:id="rId64" xr:uid="{6BCA04E5-6857-441F-82DE-7B750FEE7DDF}"/>
+    <hyperlink ref="B64" r:id="rId65" xr:uid="{3BD90B75-1C12-4AEF-BC3F-79F834FDAF58}"/>
+    <hyperlink ref="B65" r:id="rId66" xr:uid="{E3F032D3-3490-4E62-B79F-FABDFC2A10F3}"/>
+    <hyperlink ref="B66" r:id="rId67" xr:uid="{ABE81F53-2FB3-4031-8B9D-43269BB4545C}"/>
+    <hyperlink ref="B67" r:id="rId68" xr:uid="{693325A3-C8B3-483E-9927-78DBE3FCEB3D}"/>
+    <hyperlink ref="B68" r:id="rId69" xr:uid="{385CAC9C-6DD0-4985-8FA0-B652272E0A76}"/>
+    <hyperlink ref="B69" r:id="rId70" xr:uid="{3FDB1CB9-A190-4001-BBC6-F15F8E83E165}"/>
+    <hyperlink ref="B70" r:id="rId71" xr:uid="{085950A3-EBB4-48BB-B8BE-13BC094A44DB}"/>
+    <hyperlink ref="B71" r:id="rId72" xr:uid="{0496B8FD-077F-44FB-9205-52E5A8C6ADD8}"/>
+    <hyperlink ref="B72" r:id="rId73" xr:uid="{646A3029-30C2-4DED-A506-3376A4216DF3}"/>
+    <hyperlink ref="B73" r:id="rId74" xr:uid="{2F0F90AF-264E-4D22-8B53-D9F6970D5DC8}"/>
+    <hyperlink ref="B74" r:id="rId75" xr:uid="{F9E95A5A-5ADF-4F46-998B-9C1697672CAF}"/>
+    <hyperlink ref="B75" r:id="rId76" xr:uid="{9FCDB330-D4DF-436D-9935-A1D12CE8829B}"/>
+    <hyperlink ref="B76" r:id="rId77" xr:uid="{388759EF-7FA9-4565-9689-3DAE927510DE}"/>
+    <hyperlink ref="B77" r:id="rId78" xr:uid="{B28F9978-2FB9-4921-A705-C202C4F79AAD}"/>
+    <hyperlink ref="B78" r:id="rId79" xr:uid="{55E3FF53-F439-4274-B4A9-7684D5CF5F0B}"/>
+    <hyperlink ref="B79" r:id="rId80" xr:uid="{C8AC9433-6211-4603-B951-6FB4C4AE4996}"/>
+    <hyperlink ref="B80" r:id="rId81" xr:uid="{216571DF-1BC9-4E0B-90C8-16EBBDDAED12}"/>
+    <hyperlink ref="B81" r:id="rId82" xr:uid="{61632D7E-6B48-41F5-92D2-8A34A4B9CC82}"/>
+    <hyperlink ref="B82" r:id="rId83" xr:uid="{D15EBB62-DA44-49FC-AF2E-E7912E36178D}"/>
+    <hyperlink ref="B84" r:id="rId84" xr:uid="{3E2DEA75-5662-4267-9E94-6980DB646B89}"/>
+    <hyperlink ref="B85" r:id="rId85" xr:uid="{A15623B3-918B-49F6-8A3F-872A985E83AE}"/>
+    <hyperlink ref="B86" r:id="rId86" xr:uid="{C572417A-0861-48E5-854F-F0CE6A7039EC}"/>
+    <hyperlink ref="B87" r:id="rId87" xr:uid="{70AC7A63-3924-4C8B-9CBA-892D625A9D45}"/>
+    <hyperlink ref="B88" r:id="rId88" xr:uid="{DAB00E6D-E17F-4E89-91BF-2F58F1E39FA7}"/>
+    <hyperlink ref="B89" r:id="rId89" xr:uid="{C388B52A-1E18-4372-89E2-BAAD8BEFEE26}"/>
+    <hyperlink ref="B90" r:id="rId90" xr:uid="{FD4E3921-D610-455F-894A-CD9DD022446D}"/>
+    <hyperlink ref="B91" r:id="rId91" xr:uid="{2C782964-DA16-4CB9-8AD9-A32083D7F6FB}"/>
+    <hyperlink ref="B92" r:id="rId92" xr:uid="{E4713E69-80AF-43AC-A7B6-68EA6D684203}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{51F7EE06-B1B0-4C83-AC9E-2259F2403A48}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{D2278B9A-48A8-4451-8B72-423B2A205C07}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{D9B0C8E1-8836-4E8E-8252-48B7F33C8F3D}"/>
+    <hyperlink ref="B97" r:id="rId96" xr:uid="{348D65CF-E9EA-4CF4-B228-3CF34B04F002}"/>
+    <hyperlink ref="B98" r:id="rId97" xr:uid="{8B267D2D-512A-46AC-9F72-12CD1D2379CE}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{3A7382BB-43FC-492E-BFDB-0E3871CBC7D6}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{11FD678C-F978-4718-8923-E9DC3958D4DB}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{AAAEB59A-0C2E-4236-BBB6-0CFBFC0CBECF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>
--- a/DataMining/YoutubeTrendData.xlsx
+++ b/DataMining/YoutubeTrendData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BabaYaga\Desktop\University\DataMining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BabaYaga\Desktop\KuGuVeGa\Data Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACC9407-B922-430E-8939-E95D7704DB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322433ED-1B41-447B-9D69-BCA647FD2CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{FF414CC8-33D7-41B9-A3B6-9431E5C92159}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="404">
   <si>
     <t>TrendRank</t>
   </si>
@@ -904,6 +904,348 @@
   </si>
   <si>
     <t>22.15.11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9_jP0LwFyTc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=meqgYrw8qTQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BwPkfrQy5do</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WAxEAdnzruA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PhxRG2aH0Fw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Vp2g7h51Ck</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rb0ulY6caZs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pW8dDz7IOqY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yvTIVnhSH48</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Dy1KZlr07I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H0rpY9XCuII</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NzNqdjjM0Hk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jCUpjE2IrLU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hDYYupPwRpU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yCg3Ym5AYGc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MaQxac-ldLQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HqVsKyfRcgk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n2jGBKPu1t4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xG-FonetRMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6p4SeR3pliM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ct7MyXGhM4c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SlseMsi1oQc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9xFbamW6vRE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4C9FdsCU6-o</t>
+  </si>
+  <si>
+    <t>Yalı Çapkını 9. Bölüm 2. Fragmanı | Ne Yaşıyoruz Biz Ya?</t>
+  </si>
+  <si>
+    <t>24 SAAT BOYUNCA KORE MARKETLERİNDEN BESLENDİM! (KORE'LİLERİN ÇILGIN MARKETLERİ)</t>
+  </si>
+  <si>
+    <t>Ben Bu Cihana Sığmazam 9. Bölüm @atv</t>
+  </si>
+  <si>
+    <t>100 BİN TL'Yİ ÇIKARAN KAZANIR</t>
+  </si>
+  <si>
+    <t>Çukur | İstedim Vermediler! 😂😂 #shorts #short</t>
+  </si>
+  <si>
+    <t>Ne Zaman Rahata Ereceğiz Biz? #shorts</t>
+  </si>
+  <si>
+    <t>H̫̓̂e͒͒̑p̈ĭ̢̜͝ni͝ze͎̫̻͕͒͒̑̃̊͟ m̬̟̑͗e͒͒̑̃̊ṙ̻h̓̂á̘͉̉b̞͚̳̗̳̅͒̅̅̚á̉ á̘͉̉ṙ̻k͑͗ad́͐á̘̉şlá̘͉̉r</t>
+  </si>
+  <si>
+    <t>Üç Kız Kardeş | 27. Bölüm Tanıtımı</t>
+  </si>
+  <si>
+    <t>Şehirlerin Plakaları #shorts</t>
+  </si>
+  <si>
+    <t>Yürek Çıkmazı 3. Bölüm</t>
+  </si>
+  <si>
+    <t>ŞANLIURFA 250 BİN SOSYAL KONUT KURASI</t>
+  </si>
+  <si>
+    <t>Fırlatma başarılı! Dünyanın en güçlü roketi ARTEMIS 1 Ay'a gidiyor!</t>
+  </si>
+  <si>
+    <t>Miracle water 😅😀🤪 #shorts by Tsuriki Show</t>
+  </si>
+  <si>
+    <t>BİTLİS 250 BİN SOSYAL KONUT KURASI</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes' frosty meeting with Cristiano Ronaldo</t>
+  </si>
+  <si>
+    <t>kız kıza sohbet🙋🏻‍♀️🫶🏻</t>
+  </si>
+  <si>
+    <t>Dünyadaki En Karmaşık Ülke - PAKİSTAN Hakkında Her Şey!</t>
+  </si>
+  <si>
+    <t>💒👰🏻 Wedding Hacks for Clever Brides #Shorts</t>
+  </si>
+  <si>
+    <t>KÖTÜ ve İYİ Aileler Beni EVLAT EDİNDİ - Akıllı EBEVEYNİN Olmazsa Olmaz Alet ve Tüyoları La La Dünya</t>
+  </si>
+  <si>
+    <t>Nike FC Presents the Footballverse</t>
+  </si>
+  <si>
+    <t>CAHİL İNSANLARIN VİDEOLARINA TEPKİ!</t>
+  </si>
+  <si>
+    <t>Müge Anlı ile Tatlı Sert | 15 Kasım 2022 Salı</t>
+  </si>
+  <si>
+    <t>Animal toys do health checks.</t>
+  </si>
+  <si>
+    <t>AYI TEDDY - ELEŞTİREL PARODİ</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Competetion</t>
+  </si>
+  <si>
+    <t>Dcoumantary</t>
+  </si>
+  <si>
+    <t>2022-11-16T07:38:08Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T15:30:12Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T22:18:12Z</t>
+  </si>
+  <si>
+    <t>2022-11-16T13:00:10Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T14:00:14Z</t>
+  </si>
+  <si>
+    <t>2022-11-16T09:00:02Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T14:15:02Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T20:43:46Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T14:00:40Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T20:50:50Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T20:04:18Z</t>
+  </si>
+  <si>
+    <t>2022-11-16T08:58:20Z</t>
+  </si>
+  <si>
+    <t>2022-11-16T07:45:03Z</t>
+  </si>
+  <si>
+    <t>2022-11-16T12:39:01Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T10:57:31Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T13:45:03Z</t>
+  </si>
+  <si>
+    <t>2022-11-14T17:00:26Z</t>
+  </si>
+  <si>
+    <t>2022-11-14T17:00:28Z</t>
+  </si>
+  <si>
+    <t>2022-11-14T14:45:02Z</t>
+  </si>
+  <si>
+    <t>2022-11-16T08:01:10Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T14:35:18Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T12:10:13Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T16:12:52Z</t>
+  </si>
+  <si>
+    <t>2022-11-15T15:00:04Z</t>
+  </si>
+  <si>
+    <t>UCHEqoPq5lQV_ckyvFruNhAQ</t>
+  </si>
+  <si>
+    <t>UCIqv8kcV_-VKoOXB1WXKQqA</t>
+  </si>
+  <si>
+    <t>UCTAkwLbVzHxsbgsp6cRsPDg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCE1XdVHzOdMnUsUMatIzjag </t>
+  </si>
+  <si>
+    <t>UC6F8_4OLIQ9bkurVgdcLAeQ</t>
+  </si>
+  <si>
+    <t>UCXDkalNhNszGhGLmw0w4o4A</t>
+  </si>
+  <si>
+    <t>UCIWDs20QFcudiSe8LWQAAVQ</t>
+  </si>
+  <si>
+    <t>UCIA85MRFNC7bDWABtBmBHDg</t>
+  </si>
+  <si>
+    <t>UCv6jcPwFujuTIwFQ11jt1Yw</t>
+  </si>
+  <si>
+    <t>UCymK_3BWUcoYVVf5D_GmACQ</t>
+  </si>
+  <si>
+    <t>UCZ7wY7MRDSygp63HIEfdQZA</t>
+  </si>
+  <si>
+    <t>UCptZDyryl5GTlUQQ1qPJQJg</t>
+  </si>
+  <si>
+    <t>UCsAAD8Rm7uXkUSOu93QsDSw</t>
+  </si>
+  <si>
+    <t>UCmWrgDnQgY5t2IhjpdKu-jg</t>
+  </si>
+  <si>
+    <t>UCe4E-IbYL7RtuyiU9_Apvrg</t>
+  </si>
+  <si>
+    <t>UCNhxq7He5p-_FdBh0OaxcQg</t>
+  </si>
+  <si>
+    <t>UC49if6153NFe5lUNFSmIDxw</t>
+  </si>
+  <si>
+    <t>UC4ROE0kBZ983K5vLwEbkKsQ</t>
+  </si>
+  <si>
+    <t>UCZCUdSjhEFof8_dNn4e9maQ</t>
+  </si>
+  <si>
+    <t>Meryem Can</t>
+  </si>
+  <si>
+    <t>Ben Bu Cihana Sığmazam</t>
+  </si>
+  <si>
+    <t>Çukur</t>
+  </si>
+  <si>
+    <t>HUGOLA</t>
+  </si>
+  <si>
+    <t>Süreç Film</t>
+  </si>
+  <si>
+    <t>YAPYAP</t>
+  </si>
+  <si>
+    <t>Yürek Çıkmazı TRT</t>
+  </si>
+  <si>
+    <t>Barış Özcan</t>
+  </si>
+  <si>
+    <t>Tsuriki Show</t>
+  </si>
+  <si>
+    <t>Sky Sports Football</t>
+  </si>
+  <si>
+    <t>Buket Sena</t>
+  </si>
+  <si>
+    <t>Engin Deniz Videoları</t>
+  </si>
+  <si>
+    <t>5-Minute Crafts SHORTS</t>
+  </si>
+  <si>
+    <t>La La Dünya</t>
+  </si>
+  <si>
+    <t>Nike Football</t>
+  </si>
+  <si>
+    <t>TepkiKolik</t>
+  </si>
+  <si>
+    <t>Hayataku はやたく</t>
+  </si>
+  <si>
+    <t>Filmler ve Filimler</t>
+  </si>
+  <si>
+    <t>22.16.11</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A805415-0B34-40A9-B843-2B99E7DBEF99}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,8 +1664,8 @@
     <col min="3" max="3" width="89.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -4207,7 +4549,9 @@
       <c r="C91" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="E91" s="1" t="s">
         <v>277</v>
       </c>
@@ -4544,6 +4888,1610 @@
       <c r="J101" s="1">
         <v>83</v>
       </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>1</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I102" s="1">
+        <v>3568431</v>
+      </c>
+      <c r="J102" s="1">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I103" s="1">
+        <v>923861</v>
+      </c>
+      <c r="J103" s="1">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>3</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1108299</v>
+      </c>
+      <c r="J104" s="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>4</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I105" s="1">
+        <v>251974</v>
+      </c>
+      <c r="J105" s="1">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>5</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I106" s="1">
+        <v>480006</v>
+      </c>
+      <c r="J106" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>6</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1282730</v>
+      </c>
+      <c r="J107" s="1">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>7</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I108" s="1">
+        <v>268025</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1282730</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>8</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2618850</v>
+      </c>
+      <c r="J109" s="1">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>9</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I110" s="1">
+        <v>720711</v>
+      </c>
+      <c r="J110" s="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>10</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I111" s="1">
+        <v>12604303</v>
+      </c>
+      <c r="J111" s="1">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>11</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I112" s="1">
+        <v>125306</v>
+      </c>
+      <c r="J112" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>12</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I113" s="1">
+        <v>800371</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>13</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I114" s="1">
+        <v>437253</v>
+      </c>
+      <c r="J114" s="1">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>14</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I115" s="1">
+        <v>113479</v>
+      </c>
+      <c r="J115" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>15</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1066182</v>
+      </c>
+      <c r="J116" s="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>16</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I117" s="1">
+        <v>360824</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>17</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I118" s="1">
+        <v>280343</v>
+      </c>
+      <c r="J118" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>18</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I119" s="1">
+        <v>528294</v>
+      </c>
+      <c r="J119" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>19</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I120" s="1">
+        <v>1843604</v>
+      </c>
+      <c r="J120" s="1">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>20</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I121" s="1">
+        <v>890248</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>21</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I122" s="1">
+        <v>126410</v>
+      </c>
+      <c r="J122" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>22</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1442444</v>
+      </c>
+      <c r="J123" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>23</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I124" s="1">
+        <v>254696</v>
+      </c>
+      <c r="J124" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>24</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1075944</v>
+      </c>
+      <c r="J125" s="1">
+        <v>25470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>25</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1265637</v>
+      </c>
+      <c r="J126" s="1">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>26</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I127" s="1">
+        <v>577533</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>27</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1198289</v>
+      </c>
+      <c r="J128" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>28</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1319945</v>
+      </c>
+      <c r="J129" s="1">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>29</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I130" s="1">
+        <v>32614</v>
+      </c>
+      <c r="J130" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>30</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I131" s="1">
+        <v>247498</v>
+      </c>
+      <c r="J131" s="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>31</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I132" s="1">
+        <v>1449013</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>32</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I133" s="1">
+        <v>365335</v>
+      </c>
+      <c r="J133" s="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>33</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I134" s="1">
+        <v>104539</v>
+      </c>
+      <c r="J134" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>34</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I135" s="1">
+        <v>15559972</v>
+      </c>
+      <c r="J135" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>35</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I136" s="1">
+        <v>17124944</v>
+      </c>
+      <c r="J136" s="1">
+        <v>86645</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>36</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I137" s="1">
+        <v>442016</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>37</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I138" s="1">
+        <v>162913</v>
+      </c>
+      <c r="J138" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>38</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I139" s="1">
+        <v>180640</v>
+      </c>
+      <c r="J139" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>39</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1939378</v>
+      </c>
+      <c r="J140" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>40</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I141" s="1">
+        <v>30992296</v>
+      </c>
+      <c r="J141" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>41</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I142" s="1">
+        <v>187549</v>
+      </c>
+      <c r="J142" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>42</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I143" s="1">
+        <v>1129799</v>
+      </c>
+      <c r="J143" s="1">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I144" s="1">
+        <v>244108</v>
+      </c>
+      <c r="J144" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>44</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I145" s="1">
+        <v>371769</v>
+      </c>
+      <c r="J145" s="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1053303</v>
+      </c>
+      <c r="J146" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>46</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1688275</v>
+      </c>
+      <c r="J147" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>47</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I148" s="1">
+        <v>275360</v>
+      </c>
+      <c r="J148" s="1">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>48</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I149" s="1">
+        <v>316838</v>
+      </c>
+      <c r="J149" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>49</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I150" s="1">
+        <v>5201931</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>50</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I151" s="1">
+        <v>3863852</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4647,8 +6595,58 @@
     <hyperlink ref="B99" r:id="rId98" xr:uid="{3A7382BB-43FC-492E-BFDB-0E3871CBC7D6}"/>
     <hyperlink ref="B100" r:id="rId99" xr:uid="{11FD678C-F978-4718-8923-E9DC3958D4DB}"/>
     <hyperlink ref="B101" r:id="rId100" xr:uid="{AAAEB59A-0C2E-4236-BBB6-0CFBFC0CBECF}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{72B856B3-76AC-4A33-9AAE-38CA9BB047B5}"/>
+    <hyperlink ref="B107" r:id="rId102" xr:uid="{AE72024F-0550-4A31-9DEB-2709C5D5EB80}"/>
+    <hyperlink ref="B110" r:id="rId103" xr:uid="{43EE6466-329B-41F1-A58B-DC226E6A8428}"/>
+    <hyperlink ref="B113" r:id="rId104" xr:uid="{6C19D951-CB27-4801-B3A4-81B96F7D5B85}"/>
+    <hyperlink ref="B127" r:id="rId105" xr:uid="{16871F04-0525-45F7-9927-CFA0BEA7307C}"/>
+    <hyperlink ref="B144" r:id="rId106" xr:uid="{569E372D-3C21-444D-8302-C1DEF3A8DCAF}"/>
+    <hyperlink ref="B145" r:id="rId107" xr:uid="{90E81AC1-FACB-4421-8F3F-57376E674623}"/>
+    <hyperlink ref="B149" r:id="rId108" xr:uid="{A10E2EED-7390-4662-8C13-68081FB783A7}"/>
+    <hyperlink ref="B103" r:id="rId109" xr:uid="{36C1C863-A955-4EAA-A937-304968CE34F7}"/>
+    <hyperlink ref="B104" r:id="rId110" xr:uid="{28CEAE6E-003B-450E-A849-0C68BE4EB93A}"/>
+    <hyperlink ref="B105" r:id="rId111" xr:uid="{B9D46352-D358-41B9-A39F-29D17C4BF9F3}"/>
+    <hyperlink ref="B106" r:id="rId112" xr:uid="{EC288C9D-A7DF-486F-8947-26B73C18A63C}"/>
+    <hyperlink ref="B108" r:id="rId113" xr:uid="{8C3BC8EF-45F2-4445-9A3D-807DB1D67B84}"/>
+    <hyperlink ref="B109" r:id="rId114" xr:uid="{D39C3EF0-0411-455C-977D-0203F611B189}"/>
+    <hyperlink ref="B111" r:id="rId115" xr:uid="{1BBA75FE-5922-4060-A9BE-9CB452855783}"/>
+    <hyperlink ref="B112" r:id="rId116" xr:uid="{D907DA3F-885B-4EDF-AC5C-7AAEC54AB290}"/>
+    <hyperlink ref="B114" r:id="rId117" xr:uid="{11CEFB6C-050C-40C4-B2F7-3B7D51032175}"/>
+    <hyperlink ref="B115" r:id="rId118" xr:uid="{F812AAB1-FFFA-4B07-BAF5-C47E07B4FF73}"/>
+    <hyperlink ref="B116" r:id="rId119" xr:uid="{A8B05ABE-4111-48F5-BAD6-312ACF53B3CC}"/>
+    <hyperlink ref="B117" r:id="rId120" xr:uid="{F6E823B3-AC42-4375-B96D-92C9EC53E9A9}"/>
+    <hyperlink ref="B118" r:id="rId121" xr:uid="{9B2D3053-AB34-4950-B759-36A0ED83F10C}"/>
+    <hyperlink ref="B119" r:id="rId122" xr:uid="{CCF612A7-B650-4F19-8616-813B6B9295FF}"/>
+    <hyperlink ref="B120" r:id="rId123" xr:uid="{17063A29-CEC1-4083-B78D-354F3EFD78CB}"/>
+    <hyperlink ref="B121" r:id="rId124" xr:uid="{06E9FCD3-E1B3-4EF7-A5C3-91DC8377794C}"/>
+    <hyperlink ref="B122" r:id="rId125" xr:uid="{3489DDC4-3C72-4383-8631-3E33670B54B6}"/>
+    <hyperlink ref="B123" r:id="rId126" xr:uid="{EC71BF53-0989-47C4-B241-43C8E0D6B4D9}"/>
+    <hyperlink ref="B124" r:id="rId127" xr:uid="{7DF7B4A9-8515-4037-A06F-3165BC5D9C86}"/>
+    <hyperlink ref="B125" r:id="rId128" xr:uid="{41DBA7E1-3AB7-4B27-B63B-82C5210FC0C5}"/>
+    <hyperlink ref="B126" r:id="rId129" xr:uid="{60C94ED0-BA2E-4947-9ED9-38985D606F2F}"/>
+    <hyperlink ref="B128" r:id="rId130" xr:uid="{868C6EA1-AE30-41C8-AF50-0DE1BEE17B05}"/>
+    <hyperlink ref="B129" r:id="rId131" xr:uid="{9DDC865C-5E33-4B14-93C3-E6003589E140}"/>
+    <hyperlink ref="B131" r:id="rId132" xr:uid="{219A69B7-CF1E-46D3-BAA5-865E46D87B24}"/>
+    <hyperlink ref="B130" r:id="rId133" xr:uid="{97FE0907-B326-4E08-98CF-A31FC136CD84}"/>
+    <hyperlink ref="B132" r:id="rId134" xr:uid="{B27C23F7-B50F-47E5-BFA2-B2660F85C8DA}"/>
+    <hyperlink ref="B133" r:id="rId135" xr:uid="{8AF88153-8CF4-4634-8277-6BC031ED9377}"/>
+    <hyperlink ref="B134" r:id="rId136" xr:uid="{E207329C-8930-430E-92D7-5CCC3B99143C}"/>
+    <hyperlink ref="B135" r:id="rId137" xr:uid="{7A80C572-3490-4B97-BA67-305877A4EB3A}"/>
+    <hyperlink ref="B136" r:id="rId138" xr:uid="{47BD404F-FE13-49C7-B81F-C5255C7F9B47}"/>
+    <hyperlink ref="B137" r:id="rId139" xr:uid="{7C854CCA-0EE6-4908-B898-A808FA250099}"/>
+    <hyperlink ref="B138" r:id="rId140" xr:uid="{C972FD34-69F9-47FE-B9C5-DF9357FD705B}"/>
+    <hyperlink ref="B139" r:id="rId141" xr:uid="{492CA399-C25E-4C6A-A30C-D302DE0394B1}"/>
+    <hyperlink ref="B140" r:id="rId142" xr:uid="{F04104AB-1505-4C74-BD43-C25F26960BF7}"/>
+    <hyperlink ref="B141" r:id="rId143" xr:uid="{71BF1845-1748-409F-86DA-EA40583B9704}"/>
+    <hyperlink ref="B142" r:id="rId144" xr:uid="{04DFE6F5-7F8F-4787-8DB9-BA7B32F88E2E}"/>
+    <hyperlink ref="B143" r:id="rId145" xr:uid="{471D04F3-36DD-4005-9856-72E9CA41C4D4}"/>
+    <hyperlink ref="B146" r:id="rId146" xr:uid="{D32B7F9F-61DD-4FF5-B7D0-0590C861BA15}"/>
+    <hyperlink ref="B147" r:id="rId147" xr:uid="{91095856-151E-4976-A4DB-875DAF4BD7A3}"/>
+    <hyperlink ref="B148" r:id="rId148" xr:uid="{F3E346AD-B6F8-4238-953D-A09C816C384F}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{C36087EF-40CE-49D2-B60B-A5A2264F091A}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{A565CD93-DFA8-4AA2-A63A-3A139E5EB8C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId101"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId151"/>
 </worksheet>
 </file>